--- a/out.xlsx
+++ b/out.xlsx
@@ -28,15 +28,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFFF"/>
+        <bgColor rgb="0000FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,13 +50,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,14 +699,135 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/out.xlsx
+++ b/out.xlsx
@@ -42,7 +42,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -64,15 +64,113 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,87 +835,87 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
       <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="5" t="n"/>
       <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="7" t="n"/>
+      <c r="K4" s="7" t="n"/>
+      <c r="L4" s="8" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="8" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="7" t="n"/>
+      <c r="K6" s="7" t="n"/>
+      <c r="L6" s="8" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="7" t="n"/>
+      <c r="J7" s="7" t="n"/>
+      <c r="K7" s="7" t="n"/>
+      <c r="L7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/out.xlsx
+++ b/out.xlsx
@@ -1,44 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanm\Desktop\champstand\pyChampstandings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4767A5D-D8AE-4C16-BCEF-F008FA23F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rawdata_Clio" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rawdata_F3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summary_Clio" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summary_F3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rawdata_Clio" sheetId="1" r:id="rId1"/>
+    <sheet name="rawdata_F3" sheetId="2" r:id="rId2"/>
+    <sheet name="summary_Clio" sheetId="3" r:id="rId3"/>
+    <sheet name="summary_F3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray </t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>Clio  Cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 2 </t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-        <bgColor rgb="0000FFFF"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -52,198 +119,190 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -543,124 +602,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="10.140625" customWidth="1" min="19" max="19"/>
-    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>44680</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>44688</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -670,120 +703,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>44680</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>44688</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -792,130 +799,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="5" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="7" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="7" t="n"/>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="8" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
-      <c r="L5" s="8" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="8" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="7" t="n"/>
-      <c r="J7" s="7" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="11" t="n"/>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -931,18 +946,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out.xlsx
+++ b/out.xlsx
@@ -1,111 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanm\Desktop\champstand\pyChampstandings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4767A5D-D8AE-4C16-BCEF-F008FA23F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="rawdata_Clio" sheetId="1" r:id="rId1"/>
-    <sheet name="rawdata_F3" sheetId="2" r:id="rId2"/>
-    <sheet name="summary_Clio" sheetId="3" r:id="rId3"/>
-    <sheet name="summary_F3" sheetId="4" r:id="rId4"/>
+    <sheet name="rawdata_Clio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rawdata_F3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summary_Clio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summary_F3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ray </t>
-  </si>
-  <si>
-    <t>Zach</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>Clio  Cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 2 </t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Drivers</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="0000FFFF"/>
+        <bgColor rgb="0000FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -119,190 +59,221 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
-      <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
-      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
-      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -602,98 +573,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="10.140625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>44680</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44688</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44680</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44688</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -703,94 +700,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>44680</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44688</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44680</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44688</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -799,138 +822,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Clio</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="9" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="8" t="n"/>
+      <c r="L5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+      <c r="K6" s="8" t="n"/>
+      <c r="L6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="12" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="11" t="n"/>
+      <c r="L8" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -946,12 +1013,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out.xlsx
+++ b/out.xlsx
@@ -35,7 +35,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FFFF"/>
         <bgColor rgb="0000FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+        <bgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD7F32"/>
+        <bgColor rgb="00CD7F32"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -183,13 +201,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -944,60 +971,60 @@
       <c r="L4" s="9" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="B5" s="8" t="n"/>
       <c r="C5" s="9" t="n"/>
-      <c r="D5" s="7" t="n"/>
+      <c r="D5" s="10" t="n"/>
       <c r="E5" s="8" t="n"/>
       <c r="F5" s="8" t="n"/>
       <c r="G5" s="9" t="n"/>
-      <c r="H5" s="7" t="n"/>
+      <c r="H5" s="10" t="n"/>
       <c r="I5" s="8" t="n"/>
       <c r="J5" s="8" t="n"/>
       <c r="K5" s="8" t="n"/>
       <c r="L5" s="9" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="11" t="n"/>
       <c r="B6" s="8" t="n"/>
       <c r="C6" s="9" t="n"/>
-      <c r="D6" s="7" t="n"/>
+      <c r="D6" s="11" t="n"/>
       <c r="E6" s="8" t="n"/>
       <c r="F6" s="8" t="n"/>
       <c r="G6" s="9" t="n"/>
-      <c r="H6" s="7" t="n"/>
+      <c r="H6" s="11" t="n"/>
       <c r="I6" s="8" t="n"/>
       <c r="J6" s="8" t="n"/>
       <c r="K6" s="8" t="n"/>
       <c r="L6" s="9" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="12" t="n"/>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="9" t="n"/>
-      <c r="D7" s="7" t="n"/>
+      <c r="D7" s="12" t="n"/>
       <c r="E7" s="8" t="n"/>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="9" t="n"/>
-      <c r="H7" s="7" t="n"/>
+      <c r="H7" s="12" t="n"/>
       <c r="I7" s="8" t="n"/>
       <c r="J7" s="8" t="n"/>
       <c r="K7" s="8" t="n"/>
       <c r="L7" s="9" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="12" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="11" t="n"/>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="11" t="n"/>
-      <c r="J8" s="11" t="n"/>
-      <c r="K8" s="11" t="n"/>
-      <c r="L8" s="12" t="n"/>
+      <c r="A8" s="13" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="15" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_Clio" sheetId="1" state="visible" r:id="rId1"/>
@@ -605,10 +605,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -720,6 +720,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2445" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19470" yWindow="2610" windowWidth="19080" windowHeight="15120" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_Clio" sheetId="1" state="visible" r:id="rId1"/>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -724,23 +724,30 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="n">
+        <v>44695</v>
+      </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
       </c>
     </row>
     <row r="5"/>
@@ -756,10 +763,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -867,6 +874,37 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44696</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -878,7 +916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,75 +1019,162 @@
       <c r="L3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n"/>
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
       <c r="B4" s="8" t="n"/>
       <c r="C4" s="9" t="n"/>
-      <c r="D4" s="7" t="n"/>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="9" t="n"/>
-      <c r="H4" s="7" t="n"/>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
       <c r="I4" s="8" t="n"/>
       <c r="J4" s="8" t="n"/>
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="9" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="n"/>
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
       <c r="B5" s="8" t="n"/>
       <c r="C5" s="9" t="n"/>
-      <c r="D5" s="10" t="n"/>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
       <c r="E5" s="8" t="n"/>
       <c r="F5" s="8" t="n"/>
       <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="n"/>
+      <c r="H5" s="10" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
       <c r="I5" s="8" t="n"/>
       <c r="J5" s="8" t="n"/>
       <c r="K5" s="8" t="n"/>
       <c r="L5" s="9" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="n"/>
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
       <c r="B6" s="8" t="n"/>
       <c r="C6" s="9" t="n"/>
-      <c r="D6" s="11" t="n"/>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
       <c r="E6" s="8" t="n"/>
       <c r="F6" s="8" t="n"/>
       <c r="G6" s="9" t="n"/>
-      <c r="H6" s="11" t="n"/>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
       <c r="I6" s="8" t="n"/>
       <c r="J6" s="8" t="n"/>
       <c r="K6" s="8" t="n"/>
       <c r="L6" s="9" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n"/>
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="9" t="n"/>
-      <c r="D7" s="12" t="n"/>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
       <c r="E7" s="8" t="n"/>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="9" t="n"/>
-      <c r="H7" s="12" t="n"/>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
       <c r="I7" s="8" t="n"/>
       <c r="J7" s="8" t="n"/>
       <c r="K7" s="8" t="n"/>
       <c r="L7" s="9" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="15" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="15" t="n"/>
-    </row>
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="15" t="n"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:L1"/>
@@ -1069,14 +1194,274 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="9" t="n"/>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="8" t="n"/>
+      <c r="L5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+      <c r="K6" s="8" t="n"/>
+      <c r="L6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="15" t="n"/>
+    </row>
+    <row r="10"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,18 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFD700"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00C0C0C0"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00CD7F32"/>
     </font>
   </fonts>
   <fills count="6">
@@ -183,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -204,28 +216,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,155 +1051,191 @@
           <t>Nathan</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
+      <c r="B4" s="8" t="n">
+        <v>25</v>
+      </c>
       <c r="C4" s="9" t="n"/>
       <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="E4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="n"/>
       <c r="G4" s="9" t="n"/>
       <c r="H4" s="7" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="n"/>
-      <c r="K4" s="8" t="n"/>
+      <c r="I4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="n"/>
       <c r="L4" s="9" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
+      <c r="B5" s="12" t="n">
+        <v>18</v>
+      </c>
       <c r="C5" s="9" t="n"/>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
+      <c r="E5" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="n"/>
       <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="8" t="n"/>
-      <c r="K5" s="8" t="n"/>
+      <c r="I5" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="n"/>
       <c r="L5" s="9" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n"/>
+      <c r="B6" s="14" t="n">
+        <v>15</v>
+      </c>
       <c r="C6" s="9" t="n"/>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
+      <c r="E6" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="n"/>
       <c r="G6" s="9" t="n"/>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="13" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="8" t="n"/>
-      <c r="K6" s="8" t="n"/>
+      <c r="I6" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="n"/>
       <c r="L6" s="9" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
+      <c r="B7" s="16" t="n">
+        <v>12</v>
+      </c>
       <c r="C7" s="9" t="n"/>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="n"/>
       <c r="G7" s="9" t="n"/>
-      <c r="H7" s="12" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
+      <c r="I7" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="10" t="n"/>
       <c r="L7" s="9" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
+      <c r="B8" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" s="9" t="n"/>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
+      <c r="E8" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="n"/>
       <c r="G8" s="9" t="n"/>
-      <c r="H8" s="12" t="inlineStr">
+      <c r="H8" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="I8" s="8" t="n"/>
-      <c r="J8" s="8" t="n"/>
-      <c r="K8" s="8" t="n"/>
+      <c r="I8" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
       <c r="L8" s="9" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="15" t="n"/>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="B9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="13" t="inlineStr">
+      <c r="E9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20" t="n"/>
+      <c r="G9" s="19" t="n"/>
+      <c r="H9" s="17" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="15" t="n"/>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="n"/>
+      <c r="K9" s="20" t="n"/>
+      <c r="L9" s="19" t="n"/>
     </row>
     <row r="10"/>
   </sheetData>
@@ -1302,155 +1365,191 @@
           <t>Nathan</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
+      <c r="B4" s="8" t="n">
+        <v>25</v>
+      </c>
       <c r="C4" s="9" t="n"/>
       <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="E4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="n"/>
       <c r="G4" s="9" t="n"/>
       <c r="H4" s="7" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="n"/>
-      <c r="K4" s="8" t="n"/>
+      <c r="I4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="n"/>
       <c r="L4" s="9" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
+      <c r="B5" s="12" t="n">
+        <v>18</v>
+      </c>
       <c r="C5" s="9" t="n"/>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
+      <c r="E5" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10" t="n"/>
       <c r="G5" s="9" t="n"/>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="8" t="n"/>
-      <c r="K5" s="8" t="n"/>
+      <c r="I5" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="n"/>
       <c r="L5" s="9" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B6" s="8" t="n"/>
+      <c r="B6" s="14" t="n">
+        <v>15</v>
+      </c>
       <c r="C6" s="9" t="n"/>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
+      <c r="E6" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="n"/>
       <c r="G6" s="9" t="n"/>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="13" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="I6" s="8" t="n"/>
-      <c r="J6" s="8" t="n"/>
-      <c r="K6" s="8" t="n"/>
+      <c r="I6" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="n"/>
       <c r="L6" s="9" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
+      <c r="B7" s="16" t="n">
+        <v>12</v>
+      </c>
       <c r="C7" s="9" t="n"/>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="n"/>
       <c r="G7" s="9" t="n"/>
-      <c r="H7" s="12" t="inlineStr">
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
+      <c r="I7" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="10" t="n"/>
       <c r="L7" s="9" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
+      <c r="B8" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" s="9" t="n"/>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
+      <c r="E8" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="n"/>
       <c r="G8" s="9" t="n"/>
-      <c r="H8" s="12" t="inlineStr">
+      <c r="H8" s="15" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="I8" s="8" t="n"/>
-      <c r="J8" s="8" t="n"/>
-      <c r="K8" s="8" t="n"/>
+      <c r="I8" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
       <c r="L8" s="9" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="15" t="n"/>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="B9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="13" t="inlineStr">
+      <c r="E9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20" t="n"/>
+      <c r="G9" s="19" t="n"/>
+      <c r="H9" s="17" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="15" t="n"/>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="n"/>
+      <c r="K9" s="20" t="n"/>
+      <c r="L9" s="19" t="n"/>
     </row>
     <row r="10"/>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,15 +36,18 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFD700"/>
+      <color rgb="00ffc200"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00C0C0C0"/>
+      <color rgb="009a9a9a"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00CD7F32"/>
+    </font>
+    <font>
+      <color rgb="00e6e6e6"/>
     </font>
   </fonts>
   <fills count="6">
@@ -56,8 +59,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-        <bgColor rgb="0000FFFF"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -219,10 +222,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -231,28 +237,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,7 +1072,11 @@
       <c r="B4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="n"/>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Nathan</t>
@@ -1063,8 +1085,16 @@
       <c r="E4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="9" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
           <t>Nathan</t>
@@ -1073,169 +1103,301 @@
       <c r="I4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="9" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="9" t="n"/>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="K5" s="11" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="n"/>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="13" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="H6" s="15" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="n"/>
-      <c r="L6" s="9" t="n"/>
+      <c r="J6" s="13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="K6" s="11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="n"/>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G7" s="17" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="I7" s="16" t="n">
+      <c r="I7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="9" t="n"/>
+      <c r="J7" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K7" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="9" t="n"/>
+      <c r="J8" s="19" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="K8" s="11" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="n"/>
-      <c r="D9" s="17" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="20" t="n"/>
-      <c r="G9" s="19" t="n"/>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G9" s="24" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="20" t="n"/>
-      <c r="K9" s="20" t="n"/>
-      <c r="L9" s="19" t="n"/>
+      <c r="J9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K9" s="25" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="L9" s="24" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
     </row>
     <row r="10"/>
   </sheetData>
@@ -1257,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1530,11 @@
       <c r="B4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="n"/>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Evan</t>
@@ -1377,8 +1543,16 @@
       <c r="E4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="9" t="n"/>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
           <t>Nathan</t>
@@ -1387,169 +1561,301 @@
       <c r="I4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="9" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="9" t="n"/>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="n"/>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="13" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="G6" s="14" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="H6" s="15" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="n"/>
-      <c r="L6" s="9" t="n"/>
+      <c r="J6" s="11" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="K6" s="13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="n"/>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="I7" s="16" t="n">
+      <c r="I7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="9" t="n"/>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="K7" s="11" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
         <is>
           <t>Zach</t>
         </is>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="9" t="n"/>
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K8" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="n"/>
-      <c r="D9" s="17" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="20" t="n"/>
-      <c r="G9" s="19" t="n"/>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G9" s="24" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="20" t="n"/>
-      <c r="K9" s="20" t="n"/>
-      <c r="L9" s="19" t="n"/>
+      <c r="J9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K9" s="25" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="L9" s="24" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
     </row>
     <row r="10"/>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,9 +45,6 @@
     <font>
       <b val="1"/>
       <color rgb="00CD7F32"/>
-    </font>
-    <font>
-      <color rgb="00e6e6e6"/>
     </font>
   </fonts>
   <fills count="6">
@@ -198,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -225,10 +222,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -237,27 +231,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,12 +256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,14 +1068,14 @@
         </is>
       </c>
       <c r="E4" s="8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
@@ -1101,14 +1086,14 @@
         </is>
       </c>
       <c r="I4" s="8" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J4" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="K4" s="11" t="inlineStr">
+      <c r="K4" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
@@ -1120,28 +1105,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="E5" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="E5" s="12" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
@@ -1151,20 +1136,20 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H5" s="12" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="I5" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="I5" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" s="13" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="K5" s="11" t="inlineStr">
+      <c r="K5" s="14" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1181,10 +1166,10 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1194,15 +1179,15 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
+      <c r="E6" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="17" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1212,20 +1197,20 @@
           <t>Evan</t>
         </is>
       </c>
-      <c r="I6" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" s="13" t="inlineStr">
+      <c r="I6" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="K6" s="11" t="inlineStr">
+      <c r="K6" s="12" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="L6" s="10" t="inlineStr">
+      <c r="L6" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1237,53 +1222,53 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="20" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
       <c r="D7" s="18" t="inlineStr">
         <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="E7" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="inlineStr">
+        <is>
+          <t>4th</t>
         </is>
       </c>
       <c r="G7" s="17" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="I7" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K7" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
-        <is>
-          <t>DNP</t>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="K7" s="14" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="L7" s="17" t="inlineStr">
+        <is>
+          <t>4th</t>
         </is>
       </c>
     </row>
@@ -1293,107 +1278,107 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="20" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="E8" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" s="19" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>5th</t>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G8" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H8" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="19" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="K8" s="11" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="L8" s="10" t="inlineStr">
-        <is>
-          <t>4th</t>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="14" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="L8" s="17" t="inlineStr">
+        <is>
+          <t>DNP</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="inlineStr">
+      <c r="A9" s="19" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="23" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D9" s="19" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="inlineStr">
+      <c r="F9" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H9" s="19" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K9" s="25" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
+      <c r="J9" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K9" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="L9" s="21" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
@@ -1541,9 +1526,9 @@
         </is>
       </c>
       <c r="E4" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
@@ -1555,81 +1540,81 @@
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="E5" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="K4" s="11" t="inlineStr">
+      <c r="G5" s="17" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="L4" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="K5" s="14" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
         <is>
           <t>1st</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>2nd</t>
         </is>
       </c>
     </row>
@@ -1639,10 +1624,10 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1652,15 +1637,15 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="E6" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
@@ -1670,20 +1655,20 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="I6" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="I6" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="J6" s="14" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="K6" s="13" t="inlineStr">
+      <c r="K6" s="12" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="L6" s="10" t="inlineStr">
+      <c r="L6" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1695,10 +1680,10 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="20" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1708,15 +1693,15 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="E7" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="E7" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="G7" s="17" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1726,20 +1711,20 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="I7" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" s="16" t="inlineStr">
+      <c r="I7" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" s="13" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="K7" s="11" t="inlineStr">
+      <c r="K7" s="14" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="L7" s="10" t="inlineStr">
+      <c r="L7" s="17" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1751,10 +1736,10 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="20" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
@@ -1764,15 +1749,15 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
+      <c r="F8" s="14" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1782,76 +1767,76 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K8" s="16" t="inlineStr">
+      <c r="J8" s="14" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="L8" s="10" t="inlineStr">
+      <c r="L8" s="17" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="inlineStr">
+      <c r="A9" s="19" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="23" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D9" s="19" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="inlineStr">
+      <c r="F9" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H9" s="19" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K9" s="25" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
+      <c r="J9" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K9" s="20" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="L9" s="21" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>

--- a/out.xlsx
+++ b/out.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +45,9 @@
     <font>
       <b val="1"/>
       <color rgb="00CD7F32"/>
+    </font>
+    <font>
+      <color rgb="00e6e6e6"/>
     </font>
   </fonts>
   <fills count="6">
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -222,33 +225,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +265,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,14 +1083,14 @@
         </is>
       </c>
       <c r="E4" s="8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
@@ -1086,14 +1101,14 @@
         </is>
       </c>
       <c r="I4" s="8" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J4" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="11" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
@@ -1105,28 +1120,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="E5" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
@@ -1136,20 +1151,20 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" s="12" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="I5" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" s="13" t="inlineStr">
+      <c r="I5" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="K5" s="14" t="inlineStr">
+      <c r="K5" s="11" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1166,10 +1181,10 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1179,15 +1194,15 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="13" t="n">
-        <v>27</v>
-      </c>
-      <c r="F6" s="13" t="inlineStr">
+      <c r="E6" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="G6" s="17" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1197,20 +1212,20 @@
           <t>Evan</t>
         </is>
       </c>
-      <c r="I6" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" s="12" t="inlineStr">
+      <c r="I6" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" s="13" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="K6" s="12" t="inlineStr">
+      <c r="K6" s="11" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="L6" s="16" t="inlineStr">
+      <c r="L6" s="10" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1222,53 +1237,53 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
       <c r="D7" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>22</v>
-      </c>
-      <c r="F7" s="14" t="inlineStr">
-        <is>
-          <t>4th</t>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
         </is>
       </c>
       <c r="G7" s="17" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" s="14" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="K7" s="14" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="L7" s="17" t="inlineStr">
-        <is>
-          <t>4th</t>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="I7" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K7" s="16" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>DNP</t>
         </is>
       </c>
     </row>
@@ -1278,107 +1293,107 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G8" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" s="19" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>5th</t>
         </is>
       </c>
       <c r="H8" s="18" t="inlineStr">
         <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="I8" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="14" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="L8" s="17" t="inlineStr">
-        <is>
-          <t>DNP</t>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="I8" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" s="19" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="K8" s="11" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="L8" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="20" t="n">
+      <c r="B9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D9" s="19" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G9" s="21" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H9" s="19" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G9" s="24" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="20" t="n">
+      <c r="I9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K9" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="L9" s="21" t="inlineStr">
+      <c r="J9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K9" s="25" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="L9" s="24" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
@@ -1526,9 +1541,9 @@
         </is>
       </c>
       <c r="E4" s="8" t="n">
-        <v>43</v>
-      </c>
-      <c r="F4" s="12" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
@@ -1540,81 +1555,81 @@
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J4" s="12" t="inlineStr">
+      <c r="B5" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="L4" s="10" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr">
         <is>
           <t>2nd</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="G5" s="17" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="K5" s="14" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>1st</t>
         </is>
       </c>
     </row>
@@ -1624,10 +1639,10 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1637,15 +1652,15 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="E6" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="E6" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
@@ -1655,20 +1670,20 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="I6" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="J6" s="14" t="inlineStr">
+      <c r="I6" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" s="11" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="K6" s="12" t="inlineStr">
+      <c r="K6" s="13" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="L6" s="16" t="inlineStr">
+      <c r="L6" s="10" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1680,10 +1695,10 @@
           <t>Mike</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1693,15 +1708,15 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="E7" s="14" t="n">
-        <v>27</v>
-      </c>
-      <c r="F7" s="13" t="inlineStr">
+      <c r="E7" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="G7" s="10" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1711,20 +1726,20 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="I7" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" s="13" t="inlineStr">
+      <c r="I7" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="K7" s="14" t="inlineStr">
+      <c r="K7" s="11" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="L7" s="17" t="inlineStr">
+      <c r="L7" s="10" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
@@ -1736,10 +1751,10 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
@@ -1749,15 +1764,15 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="14" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G8" s="16" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
@@ -1767,76 +1782,76 @@
           <t>Zach</t>
         </is>
       </c>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="J8" s="14" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K8" s="16" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="L8" s="17" t="inlineStr">
+      <c r="L8" s="10" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="B9" s="20" t="n">
+      <c r="B9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D9" s="19" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G9" s="21" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H9" s="19" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="G9" s="24" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>Steve</t>
         </is>
       </c>
-      <c r="I9" s="20" t="n">
+      <c r="I9" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K9" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="L9" s="21" t="inlineStr">
+      <c r="J9" s="22" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="K9" s="25" t="inlineStr">
+        <is>
+          <t>DNP</t>
+        </is>
+      </c>
+      <c r="L9" s="24" t="inlineStr">
         <is>
           <t>DNP</t>
         </is>

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19470" yWindow="2610" windowWidth="19080" windowHeight="15120" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="rawdata_Clio" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rawdata_F3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summary_Clio" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summary_F3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rawdata_Overall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summary_Overall" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'rawdata_Overall'!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -225,12 +225,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,15 +249,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,10 +258,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,10 +647,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -696,45 +693,25 @@
           <t xml:space="preserve">Ray </t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44680</v>
+        <v>45010</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -742,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44688</v>
+        <v>45010</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -754,15 +731,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
         <v>3</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -770,33 +739,98 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44695</v>
-      </c>
-      <c r="C4" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
     </row>
-    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45024</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F7">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -808,160 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>44680</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44688</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44696</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,7 +853,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Clio</t>
+          <t>Overall</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -986,6 +867,27 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -1012,6 +914,39 @@
       <c r="J2" s="3" t="n"/>
       <c r="K2" s="3" t="n"/>
       <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="n"/>
+      <c r="U2" s="3" t="n"/>
+      <c r="V2" s="3" t="n"/>
+      <c r="W2" s="3" t="n"/>
+      <c r="X2" s="3" t="n"/>
+      <c r="Y2" s="3" t="n"/>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="n"/>
+      <c r="AB2" s="3" t="n"/>
+      <c r="AC2" s="3" t="n"/>
+      <c r="AD2" s="3" t="n"/>
+      <c r="AE2" s="3" t="n"/>
+      <c r="AF2" s="3" t="n"/>
+      <c r="AG2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -1062,11 +997,68 @@
       </c>
       <c r="K3" s="5" t="n"/>
       <c r="L3" s="6" t="n"/>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="n"/>
+      <c r="W3" s="5" t="n"/>
+      <c r="X3" s="5" t="n"/>
+      <c r="Y3" s="6" t="n"/>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="AB3" s="5" t="inlineStr">
+        <is>
+          <t>Finishes</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="n"/>
+      <c r="AD3" s="5" t="n"/>
+      <c r="AE3" s="5" t="n"/>
+      <c r="AF3" s="5" t="n"/>
+      <c r="AG3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Evan</t>
         </is>
       </c>
       <c r="B4" s="8" t="n">
@@ -1085,19 +1077,19 @@
       <c r="E4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Evan</t>
         </is>
       </c>
       <c r="I4" s="8" t="n">
@@ -1108,21 +1100,120 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="K4" s="11" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>2nd</t>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="L4" s="11" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="O4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="P4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="Q4" s="10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="U4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="V4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="W4" s="10" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="X4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="Y4" s="11" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="Z4" s="7" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="AA4" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="AC4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="AD4" s="10" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="AE4" s="10" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="AF4" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="AG4" s="11" t="inlineStr">
+        <is>
+          <t>1st</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Evan</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B5" s="13" t="n">
@@ -1139,39 +1230,138 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="F5" s="13" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="I5" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="L5" s="11" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="M5" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="N5" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" s="10" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>1st</t>
+      <c r="P5" s="10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="Q5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="R5" s="9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="S5" s="12" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="U5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="V5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="W5" s="10" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="X5" s="10" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="Y5" s="11" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="Z5" s="12" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="AC5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="AD5" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="AE5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="AF5" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="AG5" s="11" t="inlineStr">
+        <is>
+          <t>2nd</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1392,131 @@
           <t>3rd</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
       <c r="H6" s="15" t="inlineStr">
         <is>
-          <t>Evan</t>
+          <t xml:space="preserve">Ray </t>
         </is>
       </c>
       <c r="I6" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="K6" s="11" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>3rd</t>
+      <c r="J6" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="L6" s="14" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="M6" s="15" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="P6" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="Q6" s="10" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="R6" s="11" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="S6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="T6" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="U6" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="V6" s="10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="W6" s="10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="X6" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="Y6" s="11" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="Z6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray </t>
+        </is>
+      </c>
+      <c r="AA6" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="10" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="AC6" s="10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="AD6" s="13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="AE6" s="8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="AF6" s="10" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="AG6" s="11" t="inlineStr">
+        <is>
+          <t>DNS</t>
         </is>
       </c>
     </row>
@@ -1247,625 +1536,160 @@
       </c>
       <c r="D7" s="18" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t xml:space="preserve">Ray </t>
         </is>
       </c>
       <c r="E7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="I7" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K7" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
-        <is>
-          <t>DNP</t>
+      <c r="J7" s="23" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="K7" s="21" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="L7" s="24" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="M7" s="18" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="N7" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" s="23" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="P7" s="21" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="Q7" s="21" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="R7" s="24" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="S7" s="18" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="T7" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" s="23" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="V7" s="21" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="W7" s="21" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="X7" s="21" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="Y7" s="24" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="Z7" s="18" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="AA7" s="19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="23" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="AC7" s="21" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="AD7" s="23" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="AE7" s="21" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="AF7" s="21" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="AG7" s="24" t="inlineStr">
+        <is>
+          <t>3rd</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D8" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="E8" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" s="19" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="19" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="K8" s="11" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="L8" s="10" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="B9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="I9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K9" s="25" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
+    <row r="8"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="J3:L3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>F3</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Week 1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Week 3</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Pts</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Finishes</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>Pts</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Finishes</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>Pts</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Finishes</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="6" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="K4" s="11" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" s="17" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="G6" s="14" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H6" s="15" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="I6" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" s="11" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="K6" s="13" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="20" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="D7" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="E7" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="H7" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray </t>
-        </is>
-      </c>
-      <c r="I7" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="K7" s="11" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D8" s="18" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="E8" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="inlineStr">
-        <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K8" s="16" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="L8" s="10" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="B9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="inlineStr">
-        <is>
-          <t>Steve</t>
-        </is>
-      </c>
-      <c r="I9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="K9" s="25" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
-        <is>
-          <t>DNP</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AB3:AG3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
